--- a/Project-Export.xlsx
+++ b/Project-Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayayaradena/Documents/DEV/DB_kecamatan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBFFAC14-01D4-FE46-B749-C6CA7E0174AB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7E5BD87-6A06-C04D-9787-5BB084034A10}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2116,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3686,7 +3686,7 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>KAMUS!$C$3:$C$5</xm:f>
@@ -3699,17 +3699,11 @@
           </x14:formula1>
           <xm:sqref>O2:O20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A094532D-8CB5-7D44-A9C3-A3B1A1C15355}">
-          <x14:formula1>
-            <xm:f>KAMUS!$B$4:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C20</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{68C493E2-5C19-4241-8705-1FC8FC20BC54}">
           <x14:formula1>
             <xm:f>KAMUS!$B$3:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>C2:C20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3721,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/Project-Export.xlsx
+++ b/Project-Export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayayaradena/Documents/DEV/DB_kecamatan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7E5BD87-6A06-C04D-9787-5BB084034A10}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B296B086-AA73-0143-AE8D-27A2C8254DF9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="595">
   <si>
     <t>Name</t>
   </si>
@@ -244,9 +244,6 @@
     <t>---</t>
   </si>
   <si>
-    <t>Projek</t>
-  </si>
-  <si>
     <t>Bandung</t>
   </si>
   <si>
@@ -1757,6 +1754,63 @@
   </si>
   <si>
     <t>Kota Jayapura</t>
+  </si>
+  <si>
+    <t>Projek 1</t>
+  </si>
+  <si>
+    <t>Projek 2</t>
+  </si>
+  <si>
+    <t>Projek 3</t>
+  </si>
+  <si>
+    <t>Projek 4</t>
+  </si>
+  <si>
+    <t>Projek 5</t>
+  </si>
+  <si>
+    <t>Projek 6</t>
+  </si>
+  <si>
+    <t>Projek 7</t>
+  </si>
+  <si>
+    <t>Projek 8</t>
+  </si>
+  <si>
+    <t>Projek 9</t>
+  </si>
+  <si>
+    <t>Projek 10</t>
+  </si>
+  <si>
+    <t>Projek 11</t>
+  </si>
+  <si>
+    <t>Projek 12</t>
+  </si>
+  <si>
+    <t>Projek 13</t>
+  </si>
+  <si>
+    <t>Projek 14</t>
+  </si>
+  <si>
+    <t>Projek 15</t>
+  </si>
+  <si>
+    <t>Projek 16</t>
+  </si>
+  <si>
+    <t>Projek 17</t>
+  </si>
+  <si>
+    <t>Projek 18</t>
+  </si>
+  <si>
+    <t>Projek 19</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2171,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2133,7 +2187,9 @@
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
     <col min="16" max="16" width="30.5" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
     <col min="19" max="19" width="21.5" customWidth="1"/>
     <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -2188,7 +2244,7 @@
         <v>23</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q1" t="s">
         <v>24</v>
@@ -2223,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>576</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -2235,16 +2291,16 @@
         <v>10000</v>
       </c>
       <c r="F2">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G2">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H2">
         <v>10000</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="4">
         <v>43578</v>
@@ -2292,7 +2348,7 @@
         <v>43</v>
       </c>
       <c r="Y2">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -2300,28 +2356,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>577</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F3">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G3">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H3">
         <v>10000</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="4">
         <v>43578</v>
@@ -2339,7 +2395,7 @@
         <v>0.01</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -2377,28 +2433,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>578</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F4">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G4">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H4">
         <v>10000</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="4">
         <v>43578</v>
@@ -2416,7 +2472,7 @@
         <v>0.01</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
@@ -2454,28 +2510,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>579</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F5">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G5">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H5">
         <v>10000</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="4">
         <v>43578</v>
@@ -2531,28 +2587,28 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>580</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F6">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G6">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H6">
         <v>10000</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="4">
         <v>43578</v>
@@ -2570,7 +2626,7 @@
         <v>0.01</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="6">
         <v>0</v>
@@ -2608,28 +2664,28 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>581</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F7">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G7">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H7">
         <v>10000</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="4">
         <v>43578</v>
@@ -2647,7 +2703,7 @@
         <v>0.01</v>
       </c>
       <c r="O7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P7" s="6">
         <v>0</v>
@@ -2685,28 +2741,28 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>582</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F8">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G8">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H8">
         <v>10000</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="4">
         <v>43578</v>
@@ -2762,28 +2818,28 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>583</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F9">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G9">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H9">
         <v>10000</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="4">
         <v>43578</v>
@@ -2801,7 +2857,7 @@
         <v>0.01</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" s="6">
         <v>0</v>
@@ -2839,28 +2895,28 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>584</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F10">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G10">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H10">
         <v>10000</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="4">
         <v>43578</v>
@@ -2878,7 +2934,7 @@
         <v>0.01</v>
       </c>
       <c r="O10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P10" s="6">
         <v>0</v>
@@ -2916,28 +2972,28 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>585</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F11">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G11">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H11">
         <v>10000</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="4">
         <v>43578</v>
@@ -2993,28 +3049,28 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>586</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F12">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G12">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H12">
         <v>10000</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="4">
         <v>43578</v>
@@ -3032,7 +3088,7 @@
         <v>0.01</v>
       </c>
       <c r="O12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P12" s="6">
         <v>0</v>
@@ -3070,28 +3126,28 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>587</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F13">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G13">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H13">
         <v>10000</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="4">
         <v>43578</v>
@@ -3109,7 +3165,7 @@
         <v>0.01</v>
       </c>
       <c r="O13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P13" s="6">
         <v>0</v>
@@ -3147,28 +3203,28 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>588</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F14">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G14">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H14">
         <v>10000</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" s="4">
         <v>43578</v>
@@ -3224,28 +3280,28 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>589</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F15">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G15">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H15">
         <v>10000</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="4">
         <v>43578</v>
@@ -3263,7 +3319,7 @@
         <v>0.01</v>
       </c>
       <c r="O15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15" s="6">
         <v>0</v>
@@ -3301,28 +3357,28 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>590</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F16">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G16">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H16">
         <v>10000</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J16" s="4">
         <v>43578</v>
@@ -3340,7 +3396,7 @@
         <v>0.01</v>
       </c>
       <c r="O16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P16" s="6">
         <v>0</v>
@@ -3378,28 +3434,28 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>591</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F17">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G17">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H17">
         <v>10000</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="4">
         <v>43578</v>
@@ -3455,28 +3511,28 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>592</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F18">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G18">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H18">
         <v>10000</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="4">
         <v>43578</v>
@@ -3494,7 +3550,7 @@
         <v>0.01</v>
       </c>
       <c r="O18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P18" s="6">
         <v>0</v>
@@ -3532,28 +3588,28 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>593</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F19">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G19">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H19">
         <v>10000</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="4">
         <v>43578</v>
@@ -3571,7 +3627,7 @@
         <v>0.01</v>
       </c>
       <c r="O19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P19" s="6">
         <v>0</v>
@@ -3609,28 +3665,28 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>594</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F20">
-        <v>123123123</v>
+        <v>10000000</v>
       </c>
       <c r="G20">
-        <v>404</v>
+        <v>1000000</v>
       </c>
       <c r="H20">
         <v>10000</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" s="4">
         <v>43578</v>
@@ -3750,7 +3806,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -3761,7 +3817,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -3772,7 +3828,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -3806,7 +3862,7 @@
         <v>1101</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -3820,7 +3876,7 @@
         <v>1102</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -3834,7 +3890,7 @@
         <v>1103</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -3848,7 +3904,7 @@
         <v>1104</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -3862,7 +3918,7 @@
         <v>1105</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
@@ -3876,7 +3932,7 @@
         <v>1106</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
@@ -3890,7 +3946,7 @@
         <v>1107</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -3904,7 +3960,7 @@
         <v>1108</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -3918,7 +3974,7 @@
         <v>1109</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -3932,7 +3988,7 @@
         <v>1110</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -3946,7 +4002,7 @@
         <v>1111</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -3960,7 +4016,7 @@
         <v>1112</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -3974,7 +4030,7 @@
         <v>1113</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -3988,7 +4044,7 @@
         <v>1114</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -4002,7 +4058,7 @@
         <v>1115</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -4016,7 +4072,7 @@
         <v>1116</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -4030,7 +4086,7 @@
         <v>1117</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -4044,7 +4100,7 @@
         <v>1118</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -4058,7 +4114,7 @@
         <v>1171</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -4072,7 +4128,7 @@
         <v>1172</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -4086,7 +4142,7 @@
         <v>1173</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -4100,7 +4156,7 @@
         <v>1174</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -4114,7 +4170,7 @@
         <v>1175</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -4128,7 +4184,7 @@
         <v>1201</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -4142,7 +4198,7 @@
         <v>1202</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -4156,7 +4212,7 @@
         <v>1203</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -4170,7 +4226,7 @@
         <v>1204</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -4184,7 +4240,7 @@
         <v>1205</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -4198,7 +4254,7 @@
         <v>1206</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -4212,7 +4268,7 @@
         <v>1207</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -4226,7 +4282,7 @@
         <v>1208</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -4240,7 +4296,7 @@
         <v>1209</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -4254,7 +4310,7 @@
         <v>1210</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -4268,7 +4324,7 @@
         <v>1211</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -4276,7 +4332,7 @@
         <v>1212</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -4284,7 +4340,7 @@
         <v>1213</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -4292,7 +4348,7 @@
         <v>1214</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
@@ -4300,7 +4356,7 @@
         <v>1215</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -4308,7 +4364,7 @@
         <v>1216</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.2">
@@ -4316,7 +4372,7 @@
         <v>1217</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.2">
@@ -4324,7 +4380,7 @@
         <v>1218</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.2">
@@ -4332,7 +4388,7 @@
         <v>1219</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.2">
@@ -4340,7 +4396,7 @@
         <v>1220</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.2">
@@ -4348,7 +4404,7 @@
         <v>1221</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.2">
@@ -4356,7 +4412,7 @@
         <v>1222</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.2">
@@ -4364,7 +4420,7 @@
         <v>1223</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.2">
@@ -4372,7 +4428,7 @@
         <v>1224</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.2">
@@ -4380,7 +4436,7 @@
         <v>1225</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.2">
@@ -4388,7 +4444,7 @@
         <v>1271</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.2">
@@ -4396,7 +4452,7 @@
         <v>1272</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.2">
@@ -4404,7 +4460,7 @@
         <v>1273</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.2">
@@ -4412,7 +4468,7 @@
         <v>1274</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.2">
@@ -4420,7 +4476,7 @@
         <v>1275</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.2">
@@ -4428,7 +4484,7 @@
         <v>1276</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.2">
@@ -4436,7 +4492,7 @@
         <v>1277</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.2">
@@ -4444,7 +4500,7 @@
         <v>1278</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.2">
@@ -4452,7 +4508,7 @@
         <v>1301</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.2">
@@ -4460,7 +4516,7 @@
         <v>1302</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.2">
@@ -4468,7 +4524,7 @@
         <v>1303</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.2">
@@ -4476,7 +4532,7 @@
         <v>1304</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.2">
@@ -4484,7 +4540,7 @@
         <v>1305</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.2">
@@ -4492,7 +4548,7 @@
         <v>1306</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.2">
@@ -4500,7 +4556,7 @@
         <v>1307</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.2">
@@ -4508,7 +4564,7 @@
         <v>1308</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.2">
@@ -4516,7 +4572,7 @@
         <v>1309</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.2">
@@ -4524,7 +4580,7 @@
         <v>1310</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.2">
@@ -4532,7 +4588,7 @@
         <v>1311</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.2">
@@ -4540,7 +4596,7 @@
         <v>1312</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.2">
@@ -4548,7 +4604,7 @@
         <v>1371</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.2">
@@ -4556,7 +4612,7 @@
         <v>1372</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.2">
@@ -4564,7 +4620,7 @@
         <v>1373</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.2">
@@ -4572,7 +4628,7 @@
         <v>1374</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.2">
@@ -4580,7 +4636,7 @@
         <v>1375</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.2">
@@ -4588,7 +4644,7 @@
         <v>1376</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.2">
@@ -4596,7 +4652,7 @@
         <v>1377</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.2">
@@ -4604,7 +4660,7 @@
         <v>1401</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.2">
@@ -4612,7 +4668,7 @@
         <v>1402</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.2">
@@ -4620,7 +4676,7 @@
         <v>1403</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.2">
@@ -4628,7 +4684,7 @@
         <v>1404</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.2">
@@ -4636,7 +4692,7 @@
         <v>1405</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.2">
@@ -4644,7 +4700,7 @@
         <v>1406</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.2">
@@ -4652,7 +4708,7 @@
         <v>1407</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.2">
@@ -4660,7 +4716,7 @@
         <v>1408</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.2">
@@ -4668,7 +4724,7 @@
         <v>1409</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.2">
@@ -4676,7 +4732,7 @@
         <v>1410</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.2">
@@ -4684,7 +4740,7 @@
         <v>1471</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.2">
@@ -4692,7 +4748,7 @@
         <v>1473</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.2">
@@ -4700,7 +4756,7 @@
         <v>1501</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.2">
@@ -4708,7 +4764,7 @@
         <v>1502</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.2">
@@ -4716,7 +4772,7 @@
         <v>1503</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.2">
@@ -4724,7 +4780,7 @@
         <v>1504</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.2">
@@ -4732,7 +4788,7 @@
         <v>1505</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.2">
@@ -4740,7 +4796,7 @@
         <v>1506</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.2">
@@ -4748,7 +4804,7 @@
         <v>1507</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.2">
@@ -4756,7 +4812,7 @@
         <v>1508</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.2">
@@ -4764,7 +4820,7 @@
         <v>1509</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.2">
@@ -4772,7 +4828,7 @@
         <v>1571</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.2">
@@ -4780,7 +4836,7 @@
         <v>1572</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.2">
@@ -4788,7 +4844,7 @@
         <v>1601</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.2">
@@ -4796,7 +4852,7 @@
         <v>1602</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.2">
@@ -4804,7 +4860,7 @@
         <v>1603</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.2">
@@ -4812,7 +4868,7 @@
         <v>1604</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.2">
@@ -4820,7 +4876,7 @@
         <v>1605</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.2">
@@ -4828,7 +4884,7 @@
         <v>1606</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="5:6" x14ac:dyDescent="0.2">
@@ -4836,7 +4892,7 @@
         <v>1607</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="5:6" x14ac:dyDescent="0.2">
@@ -4844,7 +4900,7 @@
         <v>1608</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="5:6" x14ac:dyDescent="0.2">
@@ -4852,7 +4908,7 @@
         <v>1609</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.2">
@@ -4860,7 +4916,7 @@
         <v>1610</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="5:6" x14ac:dyDescent="0.2">
@@ -4868,7 +4924,7 @@
         <v>1611</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="5:6" x14ac:dyDescent="0.2">
@@ -4876,7 +4932,7 @@
         <v>1671</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="5:6" x14ac:dyDescent="0.2">
@@ -4884,7 +4940,7 @@
         <v>1672</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="5:6" x14ac:dyDescent="0.2">
@@ -4892,7 +4948,7 @@
         <v>1673</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="5:6" x14ac:dyDescent="0.2">
@@ -4900,7 +4956,7 @@
         <v>1674</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="5:6" x14ac:dyDescent="0.2">
@@ -4908,7 +4964,7 @@
         <v>1701</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="5:6" x14ac:dyDescent="0.2">
@@ -4916,7 +4972,7 @@
         <v>1702</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="5:6" x14ac:dyDescent="0.2">
@@ -4924,7 +4980,7 @@
         <v>1703</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="5:6" x14ac:dyDescent="0.2">
@@ -4932,7 +4988,7 @@
         <v>1704</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="5:6" x14ac:dyDescent="0.2">
@@ -4940,7 +4996,7 @@
         <v>1705</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="5:6" x14ac:dyDescent="0.2">
@@ -4948,7 +5004,7 @@
         <v>1706</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="5:6" x14ac:dyDescent="0.2">
@@ -4956,7 +5012,7 @@
         <v>1707</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.2">
@@ -4964,7 +5020,7 @@
         <v>1708</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="5:6" x14ac:dyDescent="0.2">
@@ -4972,7 +5028,7 @@
         <v>1709</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.2">
@@ -4980,7 +5036,7 @@
         <v>1771</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="5:6" x14ac:dyDescent="0.2">
@@ -4988,7 +5044,7 @@
         <v>1801</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="5:6" x14ac:dyDescent="0.2">
@@ -4996,7 +5052,7 @@
         <v>1802</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="135" spans="5:6" x14ac:dyDescent="0.2">
@@ -5004,7 +5060,7 @@
         <v>1803</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="5:6" x14ac:dyDescent="0.2">
@@ -5012,7 +5068,7 @@
         <v>1804</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="5:6" x14ac:dyDescent="0.2">
@@ -5020,7 +5076,7 @@
         <v>1805</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="5:6" x14ac:dyDescent="0.2">
@@ -5028,7 +5084,7 @@
         <v>1806</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="5:6" x14ac:dyDescent="0.2">
@@ -5036,7 +5092,7 @@
         <v>1807</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="5:6" x14ac:dyDescent="0.2">
@@ -5044,7 +5100,7 @@
         <v>1808</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="5:6" x14ac:dyDescent="0.2">
@@ -5052,7 +5108,7 @@
         <v>1809</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="5:6" x14ac:dyDescent="0.2">
@@ -5060,7 +5116,7 @@
         <v>1810</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="5:6" x14ac:dyDescent="0.2">
@@ -5068,7 +5124,7 @@
         <v>1811</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144" spans="5:6" x14ac:dyDescent="0.2">
@@ -5076,7 +5132,7 @@
         <v>1812</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="5:6" x14ac:dyDescent="0.2">
@@ -5084,7 +5140,7 @@
         <v>1813</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="5:6" x14ac:dyDescent="0.2">
@@ -5092,7 +5148,7 @@
         <v>1871</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="5:6" x14ac:dyDescent="0.2">
@@ -5100,7 +5156,7 @@
         <v>1872</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="5:6" x14ac:dyDescent="0.2">
@@ -5108,7 +5164,7 @@
         <v>1901</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="5:6" x14ac:dyDescent="0.2">
@@ -5116,7 +5172,7 @@
         <v>1902</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="150" spans="5:6" x14ac:dyDescent="0.2">
@@ -5124,7 +5180,7 @@
         <v>1903</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="151" spans="5:6" x14ac:dyDescent="0.2">
@@ -5132,7 +5188,7 @@
         <v>1904</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="5:6" x14ac:dyDescent="0.2">
@@ -5140,7 +5196,7 @@
         <v>1905</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="5:6" x14ac:dyDescent="0.2">
@@ -5148,7 +5204,7 @@
         <v>1906</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="5:6" x14ac:dyDescent="0.2">
@@ -5156,7 +5212,7 @@
         <v>1971</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="5:6" x14ac:dyDescent="0.2">
@@ -5164,7 +5220,7 @@
         <v>2101</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="5:6" x14ac:dyDescent="0.2">
@@ -5172,7 +5228,7 @@
         <v>2102</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="157" spans="5:6" x14ac:dyDescent="0.2">
@@ -5180,7 +5236,7 @@
         <v>2103</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="5:6" x14ac:dyDescent="0.2">
@@ -5188,7 +5244,7 @@
         <v>2104</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="159" spans="5:6" x14ac:dyDescent="0.2">
@@ -5196,7 +5252,7 @@
         <v>2105</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="160" spans="5:6" x14ac:dyDescent="0.2">
@@ -5204,7 +5260,7 @@
         <v>2171</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.2">
@@ -5212,7 +5268,7 @@
         <v>2172</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.2">
@@ -5220,7 +5276,7 @@
         <v>3101</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="163" spans="5:6" x14ac:dyDescent="0.2">
@@ -5228,7 +5284,7 @@
         <v>3171</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="164" spans="5:6" x14ac:dyDescent="0.2">
@@ -5236,7 +5292,7 @@
         <v>3172</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="5:6" x14ac:dyDescent="0.2">
@@ -5244,7 +5300,7 @@
         <v>3173</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="5:6" x14ac:dyDescent="0.2">
@@ -5252,7 +5308,7 @@
         <v>3174</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="5:6" x14ac:dyDescent="0.2">
@@ -5260,7 +5316,7 @@
         <v>3175</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168" spans="5:6" x14ac:dyDescent="0.2">
@@ -5268,7 +5324,7 @@
         <v>3201</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="5:6" x14ac:dyDescent="0.2">
@@ -5276,7 +5332,7 @@
         <v>3202</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="170" spans="5:6" x14ac:dyDescent="0.2">
@@ -5284,7 +5340,7 @@
         <v>3203</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="171" spans="5:6" x14ac:dyDescent="0.2">
@@ -5292,7 +5348,7 @@
         <v>3204</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="172" spans="5:6" x14ac:dyDescent="0.2">
@@ -5300,7 +5356,7 @@
         <v>3205</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="173" spans="5:6" x14ac:dyDescent="0.2">
@@ -5308,7 +5364,7 @@
         <v>3206</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="174" spans="5:6" x14ac:dyDescent="0.2">
@@ -5316,7 +5372,7 @@
         <v>3207</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175" spans="5:6" x14ac:dyDescent="0.2">
@@ -5324,7 +5380,7 @@
         <v>3208</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="176" spans="5:6" x14ac:dyDescent="0.2">
@@ -5332,7 +5388,7 @@
         <v>3209</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="177" spans="5:6" x14ac:dyDescent="0.2">
@@ -5340,7 +5396,7 @@
         <v>3210</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="178" spans="5:6" x14ac:dyDescent="0.2">
@@ -5348,7 +5404,7 @@
         <v>3211</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="5:6" x14ac:dyDescent="0.2">
@@ -5356,7 +5412,7 @@
         <v>3212</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="180" spans="5:6" x14ac:dyDescent="0.2">
@@ -5364,7 +5420,7 @@
         <v>3213</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="181" spans="5:6" x14ac:dyDescent="0.2">
@@ -5372,7 +5428,7 @@
         <v>3214</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="5:6" x14ac:dyDescent="0.2">
@@ -5380,7 +5436,7 @@
         <v>3215</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="5:6" x14ac:dyDescent="0.2">
@@ -5388,7 +5444,7 @@
         <v>3216</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" spans="5:6" x14ac:dyDescent="0.2">
@@ -5396,7 +5452,7 @@
         <v>3217</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="185" spans="5:6" x14ac:dyDescent="0.2">
@@ -5404,7 +5460,7 @@
         <v>3218</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="5:6" x14ac:dyDescent="0.2">
@@ -5412,7 +5468,7 @@
         <v>3271</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="5:6" x14ac:dyDescent="0.2">
@@ -5420,7 +5476,7 @@
         <v>3272</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="188" spans="5:6" x14ac:dyDescent="0.2">
@@ -5428,7 +5484,7 @@
         <v>3273</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="5:6" x14ac:dyDescent="0.2">
@@ -5436,7 +5492,7 @@
         <v>3274</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="190" spans="5:6" x14ac:dyDescent="0.2">
@@ -5444,7 +5500,7 @@
         <v>3275</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="191" spans="5:6" x14ac:dyDescent="0.2">
@@ -5452,7 +5508,7 @@
         <v>3276</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="192" spans="5:6" x14ac:dyDescent="0.2">
@@ -5460,7 +5516,7 @@
         <v>3277</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="5:6" x14ac:dyDescent="0.2">
@@ -5468,7 +5524,7 @@
         <v>3278</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="194" spans="5:6" x14ac:dyDescent="0.2">
@@ -5476,7 +5532,7 @@
         <v>3279</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="195" spans="5:6" x14ac:dyDescent="0.2">
@@ -5484,7 +5540,7 @@
         <v>3301</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="196" spans="5:6" x14ac:dyDescent="0.2">
@@ -5492,7 +5548,7 @@
         <v>3302</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="197" spans="5:6" x14ac:dyDescent="0.2">
@@ -5500,7 +5556,7 @@
         <v>3303</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="198" spans="5:6" x14ac:dyDescent="0.2">
@@ -5508,7 +5564,7 @@
         <v>3304</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="5:6" x14ac:dyDescent="0.2">
@@ -5516,7 +5572,7 @@
         <v>3305</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="5:6" x14ac:dyDescent="0.2">
@@ -5524,7 +5580,7 @@
         <v>3306</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="201" spans="5:6" x14ac:dyDescent="0.2">
@@ -5532,7 +5588,7 @@
         <v>3307</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="202" spans="5:6" x14ac:dyDescent="0.2">
@@ -5540,7 +5596,7 @@
         <v>3308</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="5:6" x14ac:dyDescent="0.2">
@@ -5548,7 +5604,7 @@
         <v>3309</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="204" spans="5:6" x14ac:dyDescent="0.2">
@@ -5556,7 +5612,7 @@
         <v>3310</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205" spans="5:6" x14ac:dyDescent="0.2">
@@ -5564,7 +5620,7 @@
         <v>3311</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="5:6" x14ac:dyDescent="0.2">
@@ -5572,7 +5628,7 @@
         <v>3312</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="207" spans="5:6" x14ac:dyDescent="0.2">
@@ -5580,7 +5636,7 @@
         <v>3313</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="5:6" x14ac:dyDescent="0.2">
@@ -5588,7 +5644,7 @@
         <v>3314</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="209" spans="5:6" x14ac:dyDescent="0.2">
@@ -5596,7 +5652,7 @@
         <v>3315</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="210" spans="5:6" x14ac:dyDescent="0.2">
@@ -5604,7 +5660,7 @@
         <v>3316</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="5:6" x14ac:dyDescent="0.2">
@@ -5612,7 +5668,7 @@
         <v>3317</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="212" spans="5:6" x14ac:dyDescent="0.2">
@@ -5620,7 +5676,7 @@
         <v>3318</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="213" spans="5:6" x14ac:dyDescent="0.2">
@@ -5628,7 +5684,7 @@
         <v>3319</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="5:6" x14ac:dyDescent="0.2">
@@ -5636,7 +5692,7 @@
         <v>3320</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="5:6" x14ac:dyDescent="0.2">
@@ -5644,7 +5700,7 @@
         <v>3321</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="216" spans="5:6" x14ac:dyDescent="0.2">
@@ -5652,7 +5708,7 @@
         <v>3322</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="5:6" x14ac:dyDescent="0.2">
@@ -5660,7 +5716,7 @@
         <v>3323</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218" spans="5:6" x14ac:dyDescent="0.2">
@@ -5668,7 +5724,7 @@
         <v>3324</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219" spans="5:6" x14ac:dyDescent="0.2">
@@ -5676,7 +5732,7 @@
         <v>3325</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220" spans="5:6" x14ac:dyDescent="0.2">
@@ -5684,7 +5740,7 @@
         <v>3326</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" spans="5:6" x14ac:dyDescent="0.2">
@@ -5692,7 +5748,7 @@
         <v>3327</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="222" spans="5:6" x14ac:dyDescent="0.2">
@@ -5700,7 +5756,7 @@
         <v>3328</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223" spans="5:6" x14ac:dyDescent="0.2">
@@ -5708,7 +5764,7 @@
         <v>3329</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224" spans="5:6" x14ac:dyDescent="0.2">
@@ -5716,7 +5772,7 @@
         <v>3371</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="225" spans="5:6" x14ac:dyDescent="0.2">
@@ -5724,7 +5780,7 @@
         <v>3372</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226" spans="5:6" x14ac:dyDescent="0.2">
@@ -5732,7 +5788,7 @@
         <v>3373</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="227" spans="5:6" x14ac:dyDescent="0.2">
@@ -5740,7 +5796,7 @@
         <v>3374</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="228" spans="5:6" x14ac:dyDescent="0.2">
@@ -5748,7 +5804,7 @@
         <v>3375</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="5:6" x14ac:dyDescent="0.2">
@@ -5756,7 +5812,7 @@
         <v>3376</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="230" spans="5:6" x14ac:dyDescent="0.2">
@@ -5764,7 +5820,7 @@
         <v>3401</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="231" spans="5:6" x14ac:dyDescent="0.2">
@@ -5772,7 +5828,7 @@
         <v>3402</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="232" spans="5:6" x14ac:dyDescent="0.2">
@@ -5780,7 +5836,7 @@
         <v>3403</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="233" spans="5:6" x14ac:dyDescent="0.2">
@@ -5788,7 +5844,7 @@
         <v>3404</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="234" spans="5:6" x14ac:dyDescent="0.2">
@@ -5796,7 +5852,7 @@
         <v>3471</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="235" spans="5:6" x14ac:dyDescent="0.2">
@@ -5804,7 +5860,7 @@
         <v>3501</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="236" spans="5:6" x14ac:dyDescent="0.2">
@@ -5812,7 +5868,7 @@
         <v>3502</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="237" spans="5:6" x14ac:dyDescent="0.2">
@@ -5820,7 +5876,7 @@
         <v>3503</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="238" spans="5:6" x14ac:dyDescent="0.2">
@@ -5828,7 +5884,7 @@
         <v>3504</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="239" spans="5:6" x14ac:dyDescent="0.2">
@@ -5836,7 +5892,7 @@
         <v>3505</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="240" spans="5:6" x14ac:dyDescent="0.2">
@@ -5844,7 +5900,7 @@
         <v>3506</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="241" spans="5:6" x14ac:dyDescent="0.2">
@@ -5852,7 +5908,7 @@
         <v>3507</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="242" spans="5:6" x14ac:dyDescent="0.2">
@@ -5860,7 +5916,7 @@
         <v>3508</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="243" spans="5:6" x14ac:dyDescent="0.2">
@@ -5868,7 +5924,7 @@
         <v>3509</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="244" spans="5:6" x14ac:dyDescent="0.2">
@@ -5876,7 +5932,7 @@
         <v>3510</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" spans="5:6" x14ac:dyDescent="0.2">
@@ -5884,7 +5940,7 @@
         <v>3511</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="246" spans="5:6" x14ac:dyDescent="0.2">
@@ -5892,7 +5948,7 @@
         <v>3512</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" spans="5:6" x14ac:dyDescent="0.2">
@@ -5900,7 +5956,7 @@
         <v>3513</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" spans="5:6" x14ac:dyDescent="0.2">
@@ -5908,7 +5964,7 @@
         <v>3514</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="249" spans="5:6" x14ac:dyDescent="0.2">
@@ -5916,7 +5972,7 @@
         <v>3515</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="250" spans="5:6" x14ac:dyDescent="0.2">
@@ -5924,7 +5980,7 @@
         <v>3516</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="251" spans="5:6" x14ac:dyDescent="0.2">
@@ -5932,7 +5988,7 @@
         <v>3517</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="252" spans="5:6" x14ac:dyDescent="0.2">
@@ -5940,7 +5996,7 @@
         <v>3518</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="253" spans="5:6" x14ac:dyDescent="0.2">
@@ -5948,7 +6004,7 @@
         <v>3519</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="254" spans="5:6" x14ac:dyDescent="0.2">
@@ -5956,7 +6012,7 @@
         <v>3520</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="5:6" x14ac:dyDescent="0.2">
@@ -5964,7 +6020,7 @@
         <v>3521</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="5:6" x14ac:dyDescent="0.2">
@@ -5972,7 +6028,7 @@
         <v>3522</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="257" spans="5:6" x14ac:dyDescent="0.2">
@@ -5980,7 +6036,7 @@
         <v>3523</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="258" spans="5:6" x14ac:dyDescent="0.2">
@@ -5988,7 +6044,7 @@
         <v>3524</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="259" spans="5:6" x14ac:dyDescent="0.2">
@@ -5996,7 +6052,7 @@
         <v>3525</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="260" spans="5:6" x14ac:dyDescent="0.2">
@@ -6004,7 +6060,7 @@
         <v>3526</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="261" spans="5:6" x14ac:dyDescent="0.2">
@@ -6012,7 +6068,7 @@
         <v>3527</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="262" spans="5:6" x14ac:dyDescent="0.2">
@@ -6020,7 +6076,7 @@
         <v>3528</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="263" spans="5:6" x14ac:dyDescent="0.2">
@@ -6028,7 +6084,7 @@
         <v>3529</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="264" spans="5:6" x14ac:dyDescent="0.2">
@@ -6036,7 +6092,7 @@
         <v>3571</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="265" spans="5:6" x14ac:dyDescent="0.2">
@@ -6044,7 +6100,7 @@
         <v>3572</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="266" spans="5:6" x14ac:dyDescent="0.2">
@@ -6052,7 +6108,7 @@
         <v>3573</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="267" spans="5:6" x14ac:dyDescent="0.2">
@@ -6060,7 +6116,7 @@
         <v>3574</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="268" spans="5:6" x14ac:dyDescent="0.2">
@@ -6068,7 +6124,7 @@
         <v>3575</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" spans="5:6" x14ac:dyDescent="0.2">
@@ -6076,7 +6132,7 @@
         <v>3576</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="270" spans="5:6" x14ac:dyDescent="0.2">
@@ -6084,7 +6140,7 @@
         <v>3577</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="271" spans="5:6" x14ac:dyDescent="0.2">
@@ -6092,7 +6148,7 @@
         <v>3578</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="272" spans="5:6" x14ac:dyDescent="0.2">
@@ -6100,7 +6156,7 @@
         <v>3579</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="273" spans="5:6" x14ac:dyDescent="0.2">
@@ -6108,7 +6164,7 @@
         <v>3601</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="274" spans="5:6" x14ac:dyDescent="0.2">
@@ -6116,7 +6172,7 @@
         <v>3602</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="275" spans="5:6" x14ac:dyDescent="0.2">
@@ -6124,7 +6180,7 @@
         <v>3603</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="276" spans="5:6" x14ac:dyDescent="0.2">
@@ -6132,7 +6188,7 @@
         <v>3604</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="277" spans="5:6" x14ac:dyDescent="0.2">
@@ -6140,7 +6196,7 @@
         <v>3671</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="278" spans="5:6" x14ac:dyDescent="0.2">
@@ -6148,7 +6204,7 @@
         <v>3672</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="279" spans="5:6" x14ac:dyDescent="0.2">
@@ -6156,7 +6212,7 @@
         <v>3673</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="280" spans="5:6" x14ac:dyDescent="0.2">
@@ -6164,7 +6220,7 @@
         <v>3674</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="281" spans="5:6" x14ac:dyDescent="0.2">
@@ -6172,7 +6228,7 @@
         <v>5101</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="282" spans="5:6" x14ac:dyDescent="0.2">
@@ -6180,7 +6236,7 @@
         <v>5102</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="283" spans="5:6" x14ac:dyDescent="0.2">
@@ -6188,7 +6244,7 @@
         <v>5103</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="284" spans="5:6" x14ac:dyDescent="0.2">
@@ -6196,7 +6252,7 @@
         <v>5104</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="285" spans="5:6" x14ac:dyDescent="0.2">
@@ -6204,7 +6260,7 @@
         <v>5105</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="286" spans="5:6" x14ac:dyDescent="0.2">
@@ -6212,7 +6268,7 @@
         <v>5106</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="287" spans="5:6" x14ac:dyDescent="0.2">
@@ -6220,7 +6276,7 @@
         <v>5107</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="288" spans="5:6" x14ac:dyDescent="0.2">
@@ -6228,7 +6284,7 @@
         <v>5108</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="289" spans="5:6" x14ac:dyDescent="0.2">
@@ -6236,7 +6292,7 @@
         <v>5171</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="290" spans="5:6" x14ac:dyDescent="0.2">
@@ -6244,7 +6300,7 @@
         <v>5201</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="291" spans="5:6" x14ac:dyDescent="0.2">
@@ -6252,7 +6308,7 @@
         <v>5202</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="292" spans="5:6" x14ac:dyDescent="0.2">
@@ -6260,7 +6316,7 @@
         <v>5203</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="293" spans="5:6" x14ac:dyDescent="0.2">
@@ -6268,7 +6324,7 @@
         <v>5204</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="294" spans="5:6" x14ac:dyDescent="0.2">
@@ -6276,7 +6332,7 @@
         <v>5205</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="295" spans="5:6" x14ac:dyDescent="0.2">
@@ -6284,7 +6340,7 @@
         <v>5206</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="296" spans="5:6" x14ac:dyDescent="0.2">
@@ -6292,7 +6348,7 @@
         <v>5207</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="297" spans="5:6" x14ac:dyDescent="0.2">
@@ -6300,7 +6356,7 @@
         <v>5208</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="298" spans="5:6" x14ac:dyDescent="0.2">
@@ -6308,7 +6364,7 @@
         <v>5271</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="299" spans="5:6" x14ac:dyDescent="0.2">
@@ -6316,7 +6372,7 @@
         <v>5272</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="300" spans="5:6" x14ac:dyDescent="0.2">
@@ -6324,7 +6380,7 @@
         <v>5301</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="301" spans="5:6" x14ac:dyDescent="0.2">
@@ -6332,7 +6388,7 @@
         <v>5302</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="302" spans="5:6" x14ac:dyDescent="0.2">
@@ -6340,7 +6396,7 @@
         <v>5303</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="303" spans="5:6" x14ac:dyDescent="0.2">
@@ -6348,7 +6404,7 @@
         <v>5304</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="304" spans="5:6" x14ac:dyDescent="0.2">
@@ -6356,7 +6412,7 @@
         <v>5305</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="305" spans="5:6" x14ac:dyDescent="0.2">
@@ -6364,7 +6420,7 @@
         <v>5306</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="306" spans="5:6" x14ac:dyDescent="0.2">
@@ -6372,7 +6428,7 @@
         <v>5307</v>
       </c>
       <c r="F306" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="307" spans="5:6" x14ac:dyDescent="0.2">
@@ -6380,7 +6436,7 @@
         <v>5308</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="308" spans="5:6" x14ac:dyDescent="0.2">
@@ -6388,7 +6444,7 @@
         <v>5309</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="309" spans="5:6" x14ac:dyDescent="0.2">
@@ -6396,7 +6452,7 @@
         <v>5310</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="310" spans="5:6" x14ac:dyDescent="0.2">
@@ -6404,7 +6460,7 @@
         <v>5311</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="311" spans="5:6" x14ac:dyDescent="0.2">
@@ -6412,7 +6468,7 @@
         <v>5312</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="312" spans="5:6" x14ac:dyDescent="0.2">
@@ -6420,7 +6476,7 @@
         <v>5313</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="313" spans="5:6" x14ac:dyDescent="0.2">
@@ -6428,7 +6484,7 @@
         <v>5314</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="314" spans="5:6" x14ac:dyDescent="0.2">
@@ -6436,7 +6492,7 @@
         <v>5315</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="315" spans="5:6" x14ac:dyDescent="0.2">
@@ -6444,7 +6500,7 @@
         <v>5316</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="316" spans="5:6" x14ac:dyDescent="0.2">
@@ -6452,7 +6508,7 @@
         <v>5317</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="317" spans="5:6" x14ac:dyDescent="0.2">
@@ -6460,7 +6516,7 @@
         <v>5318</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="318" spans="5:6" x14ac:dyDescent="0.2">
@@ -6468,7 +6524,7 @@
         <v>5319</v>
       </c>
       <c r="F318" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="319" spans="5:6" x14ac:dyDescent="0.2">
@@ -6476,7 +6532,7 @@
         <v>5320</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="320" spans="5:6" x14ac:dyDescent="0.2">
@@ -6484,7 +6540,7 @@
         <v>5371</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="321" spans="5:6" x14ac:dyDescent="0.2">
@@ -6492,7 +6548,7 @@
         <v>6101</v>
       </c>
       <c r="F321" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="322" spans="5:6" x14ac:dyDescent="0.2">
@@ -6500,7 +6556,7 @@
         <v>6102</v>
       </c>
       <c r="F322" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="323" spans="5:6" x14ac:dyDescent="0.2">
@@ -6508,7 +6564,7 @@
         <v>6103</v>
       </c>
       <c r="F323" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="324" spans="5:6" x14ac:dyDescent="0.2">
@@ -6516,7 +6572,7 @@
         <v>6104</v>
       </c>
       <c r="F324" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="325" spans="5:6" x14ac:dyDescent="0.2">
@@ -6524,7 +6580,7 @@
         <v>6105</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="326" spans="5:6" x14ac:dyDescent="0.2">
@@ -6532,7 +6588,7 @@
         <v>6106</v>
       </c>
       <c r="F326" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="327" spans="5:6" x14ac:dyDescent="0.2">
@@ -6540,7 +6596,7 @@
         <v>6107</v>
       </c>
       <c r="F327" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="328" spans="5:6" x14ac:dyDescent="0.2">
@@ -6548,7 +6604,7 @@
         <v>6108</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="329" spans="5:6" x14ac:dyDescent="0.2">
@@ -6556,7 +6612,7 @@
         <v>6109</v>
       </c>
       <c r="F329" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="330" spans="5:6" x14ac:dyDescent="0.2">
@@ -6564,7 +6620,7 @@
         <v>6110</v>
       </c>
       <c r="F330" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="331" spans="5:6" x14ac:dyDescent="0.2">
@@ -6572,7 +6628,7 @@
         <v>6111</v>
       </c>
       <c r="F331" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="332" spans="5:6" x14ac:dyDescent="0.2">
@@ -6580,7 +6636,7 @@
         <v>6112</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="333" spans="5:6" x14ac:dyDescent="0.2">
@@ -6588,7 +6644,7 @@
         <v>6171</v>
       </c>
       <c r="F333" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="334" spans="5:6" x14ac:dyDescent="0.2">
@@ -6596,7 +6652,7 @@
         <v>6172</v>
       </c>
       <c r="F334" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="335" spans="5:6" x14ac:dyDescent="0.2">
@@ -6604,7 +6660,7 @@
         <v>6201</v>
       </c>
       <c r="F335" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="336" spans="5:6" x14ac:dyDescent="0.2">
@@ -6612,7 +6668,7 @@
         <v>6202</v>
       </c>
       <c r="F336" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="337" spans="5:6" x14ac:dyDescent="0.2">
@@ -6620,7 +6676,7 @@
         <v>6203</v>
       </c>
       <c r="F337" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="338" spans="5:6" x14ac:dyDescent="0.2">
@@ -6628,7 +6684,7 @@
         <v>6204</v>
       </c>
       <c r="F338" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="339" spans="5:6" x14ac:dyDescent="0.2">
@@ -6636,7 +6692,7 @@
         <v>6205</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="340" spans="5:6" x14ac:dyDescent="0.2">
@@ -6644,7 +6700,7 @@
         <v>6206</v>
       </c>
       <c r="F340" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="341" spans="5:6" x14ac:dyDescent="0.2">
@@ -6652,7 +6708,7 @@
         <v>6207</v>
       </c>
       <c r="F341" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="342" spans="5:6" x14ac:dyDescent="0.2">
@@ -6660,7 +6716,7 @@
         <v>6208</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="343" spans="5:6" x14ac:dyDescent="0.2">
@@ -6668,7 +6724,7 @@
         <v>6209</v>
       </c>
       <c r="F343" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="344" spans="5:6" x14ac:dyDescent="0.2">
@@ -6676,7 +6732,7 @@
         <v>6210</v>
       </c>
       <c r="F344" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="345" spans="5:6" x14ac:dyDescent="0.2">
@@ -6684,7 +6740,7 @@
         <v>6211</v>
       </c>
       <c r="F345" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="346" spans="5:6" x14ac:dyDescent="0.2">
@@ -6692,7 +6748,7 @@
         <v>6212</v>
       </c>
       <c r="F346" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="347" spans="5:6" x14ac:dyDescent="0.2">
@@ -6700,7 +6756,7 @@
         <v>6213</v>
       </c>
       <c r="F347" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="348" spans="5:6" x14ac:dyDescent="0.2">
@@ -6708,7 +6764,7 @@
         <v>6271</v>
       </c>
       <c r="F348" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="349" spans="5:6" x14ac:dyDescent="0.2">
@@ -6716,7 +6772,7 @@
         <v>6301</v>
       </c>
       <c r="F349" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="350" spans="5:6" x14ac:dyDescent="0.2">
@@ -6724,7 +6780,7 @@
         <v>6302</v>
       </c>
       <c r="F350" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="351" spans="5:6" x14ac:dyDescent="0.2">
@@ -6732,7 +6788,7 @@
         <v>6303</v>
       </c>
       <c r="F351" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="352" spans="5:6" x14ac:dyDescent="0.2">
@@ -6740,7 +6796,7 @@
         <v>6304</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="353" spans="5:6" x14ac:dyDescent="0.2">
@@ -6748,7 +6804,7 @@
         <v>6305</v>
       </c>
       <c r="F353" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="354" spans="5:6" x14ac:dyDescent="0.2">
@@ -6756,7 +6812,7 @@
         <v>6306</v>
       </c>
       <c r="F354" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="355" spans="5:6" x14ac:dyDescent="0.2">
@@ -6764,7 +6820,7 @@
         <v>6307</v>
       </c>
       <c r="F355" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="356" spans="5:6" x14ac:dyDescent="0.2">
@@ -6772,7 +6828,7 @@
         <v>6308</v>
       </c>
       <c r="F356" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="357" spans="5:6" x14ac:dyDescent="0.2">
@@ -6780,7 +6836,7 @@
         <v>6309</v>
       </c>
       <c r="F357" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="358" spans="5:6" x14ac:dyDescent="0.2">
@@ -6788,7 +6844,7 @@
         <v>6310</v>
       </c>
       <c r="F358" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="359" spans="5:6" x14ac:dyDescent="0.2">
@@ -6796,7 +6852,7 @@
         <v>6311</v>
       </c>
       <c r="F359" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="360" spans="5:6" x14ac:dyDescent="0.2">
@@ -6804,7 +6860,7 @@
         <v>6371</v>
       </c>
       <c r="F360" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="361" spans="5:6" x14ac:dyDescent="0.2">
@@ -6812,7 +6868,7 @@
         <v>6372</v>
       </c>
       <c r="F361" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="362" spans="5:6" x14ac:dyDescent="0.2">
@@ -6820,7 +6876,7 @@
         <v>6401</v>
       </c>
       <c r="F362" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="363" spans="5:6" x14ac:dyDescent="0.2">
@@ -6828,7 +6884,7 @@
         <v>6402</v>
       </c>
       <c r="F363" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="364" spans="5:6" x14ac:dyDescent="0.2">
@@ -6836,7 +6892,7 @@
         <v>6403</v>
       </c>
       <c r="F364" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="365" spans="5:6" x14ac:dyDescent="0.2">
@@ -6844,7 +6900,7 @@
         <v>6404</v>
       </c>
       <c r="F365" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="366" spans="5:6" x14ac:dyDescent="0.2">
@@ -6852,7 +6908,7 @@
         <v>6405</v>
       </c>
       <c r="F366" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="367" spans="5:6" x14ac:dyDescent="0.2">
@@ -6860,7 +6916,7 @@
         <v>6409</v>
       </c>
       <c r="F367" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="368" spans="5:6" x14ac:dyDescent="0.2">
@@ -6868,7 +6924,7 @@
         <v>6471</v>
       </c>
       <c r="F368" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="369" spans="5:6" x14ac:dyDescent="0.2">
@@ -6876,7 +6932,7 @@
         <v>6472</v>
       </c>
       <c r="F369" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="370" spans="5:6" x14ac:dyDescent="0.2">
@@ -6884,7 +6940,7 @@
         <v>6474</v>
       </c>
       <c r="F370" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="371" spans="5:6" x14ac:dyDescent="0.2">
@@ -6892,7 +6948,7 @@
         <v>6501</v>
       </c>
       <c r="F371" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="372" spans="5:6" x14ac:dyDescent="0.2">
@@ -6900,7 +6956,7 @@
         <v>6502</v>
       </c>
       <c r="F372" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="373" spans="5:6" x14ac:dyDescent="0.2">
@@ -6908,7 +6964,7 @@
         <v>6503</v>
       </c>
       <c r="F373" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="374" spans="5:6" x14ac:dyDescent="0.2">
@@ -6916,7 +6972,7 @@
         <v>6504</v>
       </c>
       <c r="F374" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="375" spans="5:6" x14ac:dyDescent="0.2">
@@ -6924,7 +6980,7 @@
         <v>6571</v>
       </c>
       <c r="F375" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="376" spans="5:6" x14ac:dyDescent="0.2">
@@ -6932,7 +6988,7 @@
         <v>7101</v>
       </c>
       <c r="F376" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="377" spans="5:6" x14ac:dyDescent="0.2">
@@ -6940,7 +6996,7 @@
         <v>7102</v>
       </c>
       <c r="F377" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="378" spans="5:6" x14ac:dyDescent="0.2">
@@ -6948,7 +7004,7 @@
         <v>7103</v>
       </c>
       <c r="F378" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="379" spans="5:6" x14ac:dyDescent="0.2">
@@ -6956,7 +7012,7 @@
         <v>7104</v>
       </c>
       <c r="F379" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="380" spans="5:6" x14ac:dyDescent="0.2">
@@ -6964,7 +7020,7 @@
         <v>7105</v>
       </c>
       <c r="F380" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="381" spans="5:6" x14ac:dyDescent="0.2">
@@ -6972,7 +7028,7 @@
         <v>7106</v>
       </c>
       <c r="F381" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="382" spans="5:6" x14ac:dyDescent="0.2">
@@ -6980,7 +7036,7 @@
         <v>7107</v>
       </c>
       <c r="F382" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="383" spans="5:6" x14ac:dyDescent="0.2">
@@ -6988,7 +7044,7 @@
         <v>7108</v>
       </c>
       <c r="F383" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="384" spans="5:6" x14ac:dyDescent="0.2">
@@ -6996,7 +7052,7 @@
         <v>7109</v>
       </c>
       <c r="F384" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="385" spans="5:6" x14ac:dyDescent="0.2">
@@ -7004,7 +7060,7 @@
         <v>7110</v>
       </c>
       <c r="F385" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="386" spans="5:6" x14ac:dyDescent="0.2">
@@ -7012,7 +7068,7 @@
         <v>7111</v>
       </c>
       <c r="F386" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="387" spans="5:6" x14ac:dyDescent="0.2">
@@ -7020,7 +7076,7 @@
         <v>7171</v>
       </c>
       <c r="F387" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="388" spans="5:6" x14ac:dyDescent="0.2">
@@ -7028,7 +7084,7 @@
         <v>7172</v>
       </c>
       <c r="F388" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="389" spans="5:6" x14ac:dyDescent="0.2">
@@ -7036,7 +7092,7 @@
         <v>7173</v>
       </c>
       <c r="F389" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="390" spans="5:6" x14ac:dyDescent="0.2">
@@ -7044,7 +7100,7 @@
         <v>7174</v>
       </c>
       <c r="F390" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="391" spans="5:6" x14ac:dyDescent="0.2">
@@ -7052,7 +7108,7 @@
         <v>7201</v>
       </c>
       <c r="F391" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="392" spans="5:6" x14ac:dyDescent="0.2">
@@ -7060,7 +7116,7 @@
         <v>7202</v>
       </c>
       <c r="F392" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="393" spans="5:6" x14ac:dyDescent="0.2">
@@ -7068,7 +7124,7 @@
         <v>7203</v>
       </c>
       <c r="F393" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="394" spans="5:6" x14ac:dyDescent="0.2">
@@ -7076,7 +7132,7 @@
         <v>7204</v>
       </c>
       <c r="F394" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="395" spans="5:6" x14ac:dyDescent="0.2">
@@ -7084,7 +7140,7 @@
         <v>7205</v>
       </c>
       <c r="F395" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="396" spans="5:6" x14ac:dyDescent="0.2">
@@ -7092,7 +7148,7 @@
         <v>7206</v>
       </c>
       <c r="F396" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="397" spans="5:6" x14ac:dyDescent="0.2">
@@ -7100,7 +7156,7 @@
         <v>7207</v>
       </c>
       <c r="F397" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="398" spans="5:6" x14ac:dyDescent="0.2">
@@ -7108,7 +7164,7 @@
         <v>7208</v>
       </c>
       <c r="F398" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="399" spans="5:6" x14ac:dyDescent="0.2">
@@ -7116,7 +7172,7 @@
         <v>7209</v>
       </c>
       <c r="F399" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="400" spans="5:6" x14ac:dyDescent="0.2">
@@ -7124,7 +7180,7 @@
         <v>7210</v>
       </c>
       <c r="F400" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="401" spans="5:6" x14ac:dyDescent="0.2">
@@ -7132,7 +7188,7 @@
         <v>7271</v>
       </c>
       <c r="F401" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="402" spans="5:6" x14ac:dyDescent="0.2">
@@ -7140,7 +7196,7 @@
         <v>7301</v>
       </c>
       <c r="F402" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="403" spans="5:6" x14ac:dyDescent="0.2">
@@ -7148,7 +7204,7 @@
         <v>7302</v>
       </c>
       <c r="F403" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="404" spans="5:6" x14ac:dyDescent="0.2">
@@ -7156,7 +7212,7 @@
         <v>7303</v>
       </c>
       <c r="F404" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="405" spans="5:6" x14ac:dyDescent="0.2">
@@ -7164,7 +7220,7 @@
         <v>7304</v>
       </c>
       <c r="F405" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="406" spans="5:6" x14ac:dyDescent="0.2">
@@ -7172,7 +7228,7 @@
         <v>7305</v>
       </c>
       <c r="F406" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="407" spans="5:6" x14ac:dyDescent="0.2">
@@ -7180,7 +7236,7 @@
         <v>7306</v>
       </c>
       <c r="F407" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="408" spans="5:6" x14ac:dyDescent="0.2">
@@ -7188,7 +7244,7 @@
         <v>7307</v>
       </c>
       <c r="F408" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="409" spans="5:6" x14ac:dyDescent="0.2">
@@ -7196,7 +7252,7 @@
         <v>7308</v>
       </c>
       <c r="F409" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="410" spans="5:6" x14ac:dyDescent="0.2">
@@ -7204,7 +7260,7 @@
         <v>7309</v>
       </c>
       <c r="F410" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="411" spans="5:6" x14ac:dyDescent="0.2">
@@ -7212,7 +7268,7 @@
         <v>7310</v>
       </c>
       <c r="F411" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="412" spans="5:6" x14ac:dyDescent="0.2">
@@ -7220,7 +7276,7 @@
         <v>7311</v>
       </c>
       <c r="F412" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="413" spans="5:6" x14ac:dyDescent="0.2">
@@ -7228,7 +7284,7 @@
         <v>7312</v>
       </c>
       <c r="F413" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="414" spans="5:6" x14ac:dyDescent="0.2">
@@ -7236,7 +7292,7 @@
         <v>7313</v>
       </c>
       <c r="F414" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="415" spans="5:6" x14ac:dyDescent="0.2">
@@ -7244,7 +7300,7 @@
         <v>7314</v>
       </c>
       <c r="F415" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="416" spans="5:6" x14ac:dyDescent="0.2">
@@ -7252,7 +7308,7 @@
         <v>7315</v>
       </c>
       <c r="F416" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="417" spans="5:6" x14ac:dyDescent="0.2">
@@ -7260,7 +7316,7 @@
         <v>7316</v>
       </c>
       <c r="F417" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="418" spans="5:6" x14ac:dyDescent="0.2">
@@ -7268,7 +7324,7 @@
         <v>7317</v>
       </c>
       <c r="F418" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="419" spans="5:6" x14ac:dyDescent="0.2">
@@ -7276,7 +7332,7 @@
         <v>7318</v>
       </c>
       <c r="F419" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="420" spans="5:6" x14ac:dyDescent="0.2">
@@ -7284,7 +7340,7 @@
         <v>7322</v>
       </c>
       <c r="F420" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="421" spans="5:6" x14ac:dyDescent="0.2">
@@ -7292,7 +7348,7 @@
         <v>7325</v>
       </c>
       <c r="F421" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="422" spans="5:6" x14ac:dyDescent="0.2">
@@ -7300,7 +7356,7 @@
         <v>7326</v>
       </c>
       <c r="F422" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="423" spans="5:6" x14ac:dyDescent="0.2">
@@ -7308,7 +7364,7 @@
         <v>7371</v>
       </c>
       <c r="F423" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="424" spans="5:6" x14ac:dyDescent="0.2">
@@ -7316,7 +7372,7 @@
         <v>7372</v>
       </c>
       <c r="F424" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="425" spans="5:6" x14ac:dyDescent="0.2">
@@ -7324,7 +7380,7 @@
         <v>7373</v>
       </c>
       <c r="F425" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="426" spans="5:6" x14ac:dyDescent="0.2">
@@ -7332,7 +7388,7 @@
         <v>7401</v>
       </c>
       <c r="F426" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="427" spans="5:6" x14ac:dyDescent="0.2">
@@ -7340,7 +7396,7 @@
         <v>7402</v>
       </c>
       <c r="F427" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="428" spans="5:6" x14ac:dyDescent="0.2">
@@ -7348,7 +7404,7 @@
         <v>7403</v>
       </c>
       <c r="F428" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="429" spans="5:6" x14ac:dyDescent="0.2">
@@ -7356,7 +7412,7 @@
         <v>7404</v>
       </c>
       <c r="F429" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="430" spans="5:6" x14ac:dyDescent="0.2">
@@ -7364,7 +7420,7 @@
         <v>7405</v>
       </c>
       <c r="F430" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="431" spans="5:6" x14ac:dyDescent="0.2">
@@ -7372,7 +7428,7 @@
         <v>7406</v>
       </c>
       <c r="F431" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="432" spans="5:6" x14ac:dyDescent="0.2">
@@ -7380,7 +7436,7 @@
         <v>7407</v>
       </c>
       <c r="F432" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="433" spans="5:6" x14ac:dyDescent="0.2">
@@ -7388,7 +7444,7 @@
         <v>7408</v>
       </c>
       <c r="F433" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="434" spans="5:6" x14ac:dyDescent="0.2">
@@ -7396,7 +7452,7 @@
         <v>7409</v>
       </c>
       <c r="F434" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="435" spans="5:6" x14ac:dyDescent="0.2">
@@ -7404,7 +7460,7 @@
         <v>7410</v>
       </c>
       <c r="F435" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="436" spans="5:6" x14ac:dyDescent="0.2">
@@ -7412,7 +7468,7 @@
         <v>7471</v>
       </c>
       <c r="F436" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="437" spans="5:6" x14ac:dyDescent="0.2">
@@ -7420,7 +7476,7 @@
         <v>7472</v>
       </c>
       <c r="F437" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="438" spans="5:6" x14ac:dyDescent="0.2">
@@ -7428,7 +7484,7 @@
         <v>7501</v>
       </c>
       <c r="F438" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="439" spans="5:6" x14ac:dyDescent="0.2">
@@ -7436,7 +7492,7 @@
         <v>7502</v>
       </c>
       <c r="F439" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="440" spans="5:6" x14ac:dyDescent="0.2">
@@ -7444,7 +7500,7 @@
         <v>7503</v>
       </c>
       <c r="F440" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="441" spans="5:6" x14ac:dyDescent="0.2">
@@ -7452,7 +7508,7 @@
         <v>7504</v>
       </c>
       <c r="F441" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="442" spans="5:6" x14ac:dyDescent="0.2">
@@ -7460,7 +7516,7 @@
         <v>7505</v>
       </c>
       <c r="F442" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="443" spans="5:6" x14ac:dyDescent="0.2">
@@ -7468,7 +7524,7 @@
         <v>7571</v>
       </c>
       <c r="F443" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="444" spans="5:6" x14ac:dyDescent="0.2">
@@ -7476,7 +7532,7 @@
         <v>7601</v>
       </c>
       <c r="F444" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="445" spans="5:6" x14ac:dyDescent="0.2">
@@ -7484,7 +7540,7 @@
         <v>7602</v>
       </c>
       <c r="F445" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="446" spans="5:6" x14ac:dyDescent="0.2">
@@ -7492,7 +7548,7 @@
         <v>7603</v>
       </c>
       <c r="F446" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="447" spans="5:6" x14ac:dyDescent="0.2">
@@ -7500,7 +7556,7 @@
         <v>7604</v>
       </c>
       <c r="F447" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="448" spans="5:6" x14ac:dyDescent="0.2">
@@ -7508,7 +7564,7 @@
         <v>7605</v>
       </c>
       <c r="F448" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="449" spans="5:6" x14ac:dyDescent="0.2">
@@ -7516,7 +7572,7 @@
         <v>8101</v>
       </c>
       <c r="F449" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="450" spans="5:6" x14ac:dyDescent="0.2">
@@ -7524,7 +7580,7 @@
         <v>8102</v>
       </c>
       <c r="F450" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="451" spans="5:6" x14ac:dyDescent="0.2">
@@ -7532,7 +7588,7 @@
         <v>8103</v>
       </c>
       <c r="F451" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="452" spans="5:6" x14ac:dyDescent="0.2">
@@ -7540,7 +7596,7 @@
         <v>8104</v>
       </c>
       <c r="F452" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="453" spans="5:6" x14ac:dyDescent="0.2">
@@ -7548,7 +7604,7 @@
         <v>8105</v>
       </c>
       <c r="F453" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="454" spans="5:6" x14ac:dyDescent="0.2">
@@ -7556,7 +7612,7 @@
         <v>8106</v>
       </c>
       <c r="F454" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="455" spans="5:6" x14ac:dyDescent="0.2">
@@ -7564,7 +7620,7 @@
         <v>8107</v>
       </c>
       <c r="F455" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="456" spans="5:6" x14ac:dyDescent="0.2">
@@ -7572,7 +7628,7 @@
         <v>8108</v>
       </c>
       <c r="F456" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="457" spans="5:6" x14ac:dyDescent="0.2">
@@ -7580,7 +7636,7 @@
         <v>8109</v>
       </c>
       <c r="F457" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="458" spans="5:6" x14ac:dyDescent="0.2">
@@ -7588,7 +7644,7 @@
         <v>8171</v>
       </c>
       <c r="F458" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="459" spans="5:6" x14ac:dyDescent="0.2">
@@ -7596,7 +7652,7 @@
         <v>8172</v>
       </c>
       <c r="F459" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="460" spans="5:6" x14ac:dyDescent="0.2">
@@ -7604,7 +7660,7 @@
         <v>8201</v>
       </c>
       <c r="F460" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="461" spans="5:6" x14ac:dyDescent="0.2">
@@ -7612,7 +7668,7 @@
         <v>8202</v>
       </c>
       <c r="F461" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="462" spans="5:6" x14ac:dyDescent="0.2">
@@ -7620,7 +7676,7 @@
         <v>8203</v>
       </c>
       <c r="F462" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="463" spans="5:6" x14ac:dyDescent="0.2">
@@ -7628,7 +7684,7 @@
         <v>8204</v>
       </c>
       <c r="F463" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="464" spans="5:6" x14ac:dyDescent="0.2">
@@ -7636,7 +7692,7 @@
         <v>8205</v>
       </c>
       <c r="F464" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="465" spans="5:6" x14ac:dyDescent="0.2">
@@ -7644,7 +7700,7 @@
         <v>8206</v>
       </c>
       <c r="F465" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="466" spans="5:6" x14ac:dyDescent="0.2">
@@ -7652,7 +7708,7 @@
         <v>8207</v>
       </c>
       <c r="F466" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="467" spans="5:6" x14ac:dyDescent="0.2">
@@ -7660,7 +7716,7 @@
         <v>8271</v>
       </c>
       <c r="F467" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="468" spans="5:6" x14ac:dyDescent="0.2">
@@ -7668,7 +7724,7 @@
         <v>8272</v>
       </c>
       <c r="F468" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="469" spans="5:6" x14ac:dyDescent="0.2">
@@ -7676,7 +7732,7 @@
         <v>9101</v>
       </c>
       <c r="F469" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="470" spans="5:6" x14ac:dyDescent="0.2">
@@ -7684,7 +7740,7 @@
         <v>9102</v>
       </c>
       <c r="F470" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="471" spans="5:6" x14ac:dyDescent="0.2">
@@ -7692,7 +7748,7 @@
         <v>9103</v>
       </c>
       <c r="F471" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="472" spans="5:6" x14ac:dyDescent="0.2">
@@ -7700,7 +7756,7 @@
         <v>9104</v>
       </c>
       <c r="F472" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="473" spans="5:6" x14ac:dyDescent="0.2">
@@ -7708,7 +7764,7 @@
         <v>9105</v>
       </c>
       <c r="F473" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="474" spans="5:6" x14ac:dyDescent="0.2">
@@ -7716,7 +7772,7 @@
         <v>9106</v>
       </c>
       <c r="F474" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="475" spans="5:6" x14ac:dyDescent="0.2">
@@ -7724,7 +7780,7 @@
         <v>9107</v>
       </c>
       <c r="F475" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="476" spans="5:6" x14ac:dyDescent="0.2">
@@ -7732,7 +7788,7 @@
         <v>9108</v>
       </c>
       <c r="F476" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="477" spans="5:6" x14ac:dyDescent="0.2">
@@ -7740,7 +7796,7 @@
         <v>9109</v>
       </c>
       <c r="F477" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="478" spans="5:6" x14ac:dyDescent="0.2">
@@ -7748,7 +7804,7 @@
         <v>9110</v>
       </c>
       <c r="F478" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="479" spans="5:6" x14ac:dyDescent="0.2">
@@ -7756,7 +7812,7 @@
         <v>9171</v>
       </c>
       <c r="F479" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="480" spans="5:6" x14ac:dyDescent="0.2">
@@ -7764,7 +7820,7 @@
         <v>9401</v>
       </c>
       <c r="F480" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="481" spans="5:6" x14ac:dyDescent="0.2">
@@ -7772,7 +7828,7 @@
         <v>9402</v>
       </c>
       <c r="F481" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="482" spans="5:6" x14ac:dyDescent="0.2">
@@ -7780,7 +7836,7 @@
         <v>9403</v>
       </c>
       <c r="F482" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="483" spans="5:6" x14ac:dyDescent="0.2">
@@ -7788,7 +7844,7 @@
         <v>9404</v>
       </c>
       <c r="F483" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="484" spans="5:6" x14ac:dyDescent="0.2">
@@ -7796,7 +7852,7 @@
         <v>9408</v>
       </c>
       <c r="F484" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="485" spans="5:6" x14ac:dyDescent="0.2">
@@ -7804,7 +7860,7 @@
         <v>9409</v>
       </c>
       <c r="F485" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="486" spans="5:6" x14ac:dyDescent="0.2">
@@ -7812,7 +7868,7 @@
         <v>9410</v>
       </c>
       <c r="F486" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="487" spans="5:6" x14ac:dyDescent="0.2">
@@ -7820,7 +7876,7 @@
         <v>9411</v>
       </c>
       <c r="F487" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="488" spans="5:6" x14ac:dyDescent="0.2">
@@ -7828,7 +7884,7 @@
         <v>9412</v>
       </c>
       <c r="F488" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="489" spans="5:6" x14ac:dyDescent="0.2">
@@ -7836,7 +7892,7 @@
         <v>9413</v>
       </c>
       <c r="F489" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="490" spans="5:6" x14ac:dyDescent="0.2">
@@ -7844,7 +7900,7 @@
         <v>9414</v>
       </c>
       <c r="F490" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="491" spans="5:6" x14ac:dyDescent="0.2">
@@ -7852,7 +7908,7 @@
         <v>9415</v>
       </c>
       <c r="F491" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="492" spans="5:6" x14ac:dyDescent="0.2">
@@ -7860,7 +7916,7 @@
         <v>9416</v>
       </c>
       <c r="F492" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="493" spans="5:6" x14ac:dyDescent="0.2">
@@ -7868,7 +7924,7 @@
         <v>9417</v>
       </c>
       <c r="F493" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="494" spans="5:6" x14ac:dyDescent="0.2">
@@ -7876,7 +7932,7 @@
         <v>9418</v>
       </c>
       <c r="F494" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="495" spans="5:6" x14ac:dyDescent="0.2">
@@ -7884,7 +7940,7 @@
         <v>9419</v>
       </c>
       <c r="F495" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="496" spans="5:6" x14ac:dyDescent="0.2">
@@ -7892,7 +7948,7 @@
         <v>9420</v>
       </c>
       <c r="F496" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="497" spans="5:6" x14ac:dyDescent="0.2">
@@ -7900,7 +7956,7 @@
         <v>9426</v>
       </c>
       <c r="F497" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="498" spans="5:6" x14ac:dyDescent="0.2">
@@ -7908,7 +7964,7 @@
         <v>9427</v>
       </c>
       <c r="F498" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="499" spans="5:6" x14ac:dyDescent="0.2">
@@ -7916,7 +7972,7 @@
         <v>9428</v>
       </c>
       <c r="F499" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="500" spans="5:6" x14ac:dyDescent="0.2">
@@ -7924,7 +7980,7 @@
         <v>9429</v>
       </c>
       <c r="F500" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="501" spans="5:6" x14ac:dyDescent="0.2">
@@ -7932,7 +7988,7 @@
         <v>9430</v>
       </c>
       <c r="F501" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="502" spans="5:6" x14ac:dyDescent="0.2">
@@ -7940,7 +7996,7 @@
         <v>9431</v>
       </c>
       <c r="F502" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="503" spans="5:6" x14ac:dyDescent="0.2">
@@ -7948,7 +8004,7 @@
         <v>9432</v>
       </c>
       <c r="F503" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="504" spans="5:6" x14ac:dyDescent="0.2">
@@ -7956,7 +8012,7 @@
         <v>9433</v>
       </c>
       <c r="F504" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="505" spans="5:6" x14ac:dyDescent="0.2">
@@ -7964,7 +8020,7 @@
         <v>9434</v>
       </c>
       <c r="F505" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="506" spans="5:6" x14ac:dyDescent="0.2">
@@ -7972,7 +8028,7 @@
         <v>9435</v>
       </c>
       <c r="F506" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="507" spans="5:6" x14ac:dyDescent="0.2">
@@ -7980,7 +8036,7 @@
         <v>9436</v>
       </c>
       <c r="F507" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="508" spans="5:6" x14ac:dyDescent="0.2">
@@ -7988,7 +8044,7 @@
         <v>9471</v>
       </c>
       <c r="F508" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
